--- a/biology/Botanique/Lis_royal/Lis_royal.xlsx
+++ b/biology/Botanique/Lis_royal/Lis_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium regale
 Le Lis royal (Lilium regale) est une espèce de plantes de la famille des Liliaceae. Il est originaire de la partie occidentale de la Province du Sichuan dans le sud-ouest de la Chine et cultivé ailleurs comme arbre d’ornement. Il a été introduit en Angleterre en 1903 par Ernest Henry Wilson.
